--- a/2. D4J_Tools_Metrics/Defects4J_Correct_Tool_Complexity_217_Avg.xlsx
+++ b/2. D4J_Tools_Metrics/Defects4J_Correct_Tool_Complexity_217_Avg.xlsx
@@ -4366,8 +4366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ792"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A659" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A684" sqref="A684"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A680" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A701" sqref="A701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -50770,6 +50770,10 @@
       </c>
     </row>
     <row r="695" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A695" s="1">
+        <f>COUNTIFS($R$24:$R$674, "Fixed", $S$24:$S$674, "&lt;2")</f>
+        <v>167</v>
+      </c>
       <c r="B695" s="1" t="s">
         <v>706</v>
       </c>
@@ -50827,6 +50831,10 @@
       </c>
     </row>
     <row r="696" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A696" s="1">
+        <f>COUNTIFS($R$24:$R$674, "Repaired", $S$24:$S$674, "&lt;2")</f>
+        <v>192</v>
+      </c>
       <c r="B696" s="1" t="s">
         <v>707</v>
       </c>
@@ -50928,6 +50936,10 @@
       </c>
     </row>
     <row r="699" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A699" s="1">
+        <f>COUNTIFS($R$24:$R$674, "Fixed", $S$24:$S$674, "&gt;1")</f>
+        <v>50</v>
+      </c>
       <c r="B699" s="1" t="s">
         <v>708</v>
       </c>
@@ -50985,6 +50997,10 @@
       </c>
     </row>
     <row r="700" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A700" s="1">
+        <f>COUNTIFS($R$24:$R$674, "Repaired", $S$24:$S$674, "&gt;1")</f>
+        <v>25</v>
+      </c>
       <c r="B700" s="1" t="s">
         <v>709</v>
       </c>
@@ -51118,6 +51134,10 @@
       </c>
     </row>
     <row r="704" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A704" s="1">
+        <f>COUNTIFS( $R$24:$R$674, "Fixed", $V$24:$V$674, "&lt;2")</f>
+        <v>8</v>
+      </c>
       <c r="B704" s="1" t="s">
         <v>778</v>
       </c>
@@ -51175,6 +51195,10 @@
       </c>
     </row>
     <row r="705" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A705" s="1">
+        <f>COUNTIFS($R$24:$R$674, "Repaired", $V$24:$V$674, "&lt;2")</f>
+        <v>16</v>
+      </c>
       <c r="B705" s="1" t="s">
         <v>779</v>
       </c>
@@ -51276,6 +51300,10 @@
       </c>
     </row>
     <row r="708" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A708" s="1">
+        <f>COUNTIFS($R$24:$R$674, "Fixed", $V$24:$V$674, "&gt;1")</f>
+        <v>209</v>
+      </c>
       <c r="B708" s="1" t="s">
         <v>780</v>
       </c>
@@ -51333,6 +51361,10 @@
       </c>
     </row>
     <row r="709" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A709" s="1">
+        <f>COUNTIFS($R$24:$R$674, "Repaired", $V$24:$V$674, "&gt;1")</f>
+        <v>201</v>
+      </c>
       <c r="B709" s="1" t="s">
         <v>781</v>
       </c>
